--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="H2">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="I2">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="J2">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.114663666666666</v>
+        <v>5.343111666666666</v>
       </c>
       <c r="N2">
-        <v>6.343991</v>
+        <v>16.029335</v>
       </c>
       <c r="O2">
-        <v>0.003944594926988795</v>
+        <v>0.007536583045055595</v>
       </c>
       <c r="P2">
-        <v>0.003963625705316761</v>
+        <v>0.007566622551600167</v>
       </c>
       <c r="Q2">
-        <v>93.79655543185778</v>
+        <v>246.7103873894489</v>
       </c>
       <c r="R2">
-        <v>844.16899888672</v>
+        <v>2220.39348650504</v>
       </c>
       <c r="S2">
-        <v>0.0005355558539763149</v>
+        <v>0.0008699751830416832</v>
       </c>
       <c r="T2">
-        <v>0.0005561113573448577</v>
+        <v>0.0008998289120092245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="H3">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="I3">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="J3">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>74.863215</v>
       </c>
       <c r="O3">
-        <v>0.04654878263652509</v>
+        <v>0.03519876756380422</v>
       </c>
       <c r="P3">
-        <v>0.046773358183619</v>
+        <v>0.03533906371688481</v>
       </c>
       <c r="Q3">
-        <v>1106.8602864592</v>
+        <v>1152.23325071624</v>
       </c>
       <c r="R3">
-        <v>9961.7425781328</v>
+        <v>10370.09925644616</v>
       </c>
       <c r="S3">
-        <v>0.006319906986112916</v>
+        <v>0.004063121718568729</v>
       </c>
       <c r="T3">
-        <v>0.006562475279181497</v>
+        <v>0.004202550218269357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="H4">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="I4">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="J4">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>245.6480053333333</v>
+        <v>312.3302103333334</v>
       </c>
       <c r="N4">
-        <v>736.944016</v>
+        <v>936.990631</v>
       </c>
       <c r="O4">
-        <v>0.4582203264456632</v>
+        <v>0.4405490123558179</v>
       </c>
       <c r="P4">
-        <v>0.4604310197156595</v>
+        <v>0.4423049639403425</v>
       </c>
       <c r="Q4">
-        <v>10895.79260861497</v>
+        <v>14421.39187647486</v>
       </c>
       <c r="R4">
-        <v>98062.13347753473</v>
+        <v>129792.5268882737</v>
       </c>
       <c r="S4">
-        <v>0.06221236471199519</v>
+        <v>0.05085417428187553</v>
       </c>
       <c r="T4">
-        <v>0.06460017629673978</v>
+        <v>0.05259926628619133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="H5">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="I5">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="J5">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.721897999999999</v>
+        <v>8.4436795</v>
       </c>
       <c r="N5">
-        <v>15.443796</v>
+        <v>16.887359</v>
       </c>
       <c r="O5">
-        <v>0.01440406820132228</v>
+        <v>0.01191000595300744</v>
       </c>
       <c r="P5">
-        <v>0.00964904061390821</v>
+        <v>0.007971651440709677</v>
       </c>
       <c r="Q5">
-        <v>342.50715383872</v>
+        <v>389.8745843986694</v>
       </c>
       <c r="R5">
-        <v>2055.04292303232</v>
+        <v>2339.247506392016</v>
       </c>
       <c r="S5">
-        <v>0.001955633769518903</v>
+        <v>0.001374815290570284</v>
       </c>
       <c r="T5">
-        <v>0.001353796112907014</v>
+        <v>0.0009479952771390195</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="H6">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="I6">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="J6">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.6524913333334</v>
+        <v>357.885376</v>
       </c>
       <c r="N6">
-        <v>766.957474</v>
+        <v>1073.656128</v>
       </c>
       <c r="O6">
-        <v>0.4768822277895005</v>
+        <v>0.504805631082315</v>
       </c>
       <c r="P6">
-        <v>0.4791829557814964</v>
+        <v>0.5068176983504629</v>
       </c>
       <c r="Q6">
-        <v>11339.54465318734</v>
+        <v>16524.83520133154</v>
       </c>
       <c r="R6">
-        <v>102055.9018786861</v>
+        <v>148723.5168119839</v>
       </c>
       <c r="S6">
-        <v>0.06474608254513403</v>
+        <v>0.05827154941116552</v>
       </c>
       <c r="T6">
-        <v>0.06723114233483676</v>
+        <v>0.06027117316658968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>252.039825</v>
       </c>
       <c r="I7">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="J7">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.114663666666666</v>
+        <v>5.343111666666666</v>
       </c>
       <c r="N7">
-        <v>6.343991</v>
+        <v>16.029335</v>
       </c>
       <c r="O7">
-        <v>0.003944594926988795</v>
+        <v>0.007536583045055595</v>
       </c>
       <c r="P7">
-        <v>0.003963625705316761</v>
+        <v>0.007566622551600167</v>
       </c>
       <c r="Q7">
-        <v>177.659820160175</v>
+        <v>448.892309807375</v>
       </c>
       <c r="R7">
-        <v>1598.938381441575</v>
+        <v>4040.030788266375</v>
       </c>
       <c r="S7">
-        <v>0.001014394998463288</v>
+        <v>0.00158292957796789</v>
       </c>
       <c r="T7">
-        <v>0.001053329125787507</v>
+        <v>0.001637248771798381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>252.039825</v>
       </c>
       <c r="I8">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="J8">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>74.863215</v>
       </c>
       <c r="O8">
-        <v>0.04654878263652509</v>
+        <v>0.03519876756380422</v>
       </c>
       <c r="P8">
-        <v>0.046773358183619</v>
+        <v>0.03533906371688481</v>
       </c>
       <c r="Q8">
         <v>2096.501289726375</v>
@@ -948,10 +948,10 @@
         <v>18868.51160753737</v>
       </c>
       <c r="S8">
-        <v>0.01197051995579467</v>
+        <v>0.007392895421130661</v>
       </c>
       <c r="T8">
-        <v>0.01242996795070992</v>
+        <v>0.00764658713612437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>252.039825</v>
       </c>
       <c r="I9">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="J9">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>245.6480053333333</v>
+        <v>312.3302103333334</v>
       </c>
       <c r="N9">
-        <v>736.944016</v>
+        <v>936.990631</v>
       </c>
       <c r="O9">
-        <v>0.4582203264456632</v>
+        <v>0.4405490123558179</v>
       </c>
       <c r="P9">
-        <v>0.4604310197156595</v>
+        <v>0.4423049639403425</v>
       </c>
       <c r="Q9">
-        <v>20637.6934252708</v>
+        <v>26239.88385154218</v>
       </c>
       <c r="R9">
-        <v>185739.2408274372</v>
+        <v>236158.9546638796</v>
       </c>
       <c r="S9">
-        <v>0.1178362838121695</v>
+        <v>0.09252973901217346</v>
       </c>
       <c r="T9">
-        <v>0.1223590317400537</v>
+        <v>0.09570495343639272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>252.039825</v>
       </c>
       <c r="I10">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="J10">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.721897999999999</v>
+        <v>8.4436795</v>
       </c>
       <c r="N10">
-        <v>15.443796</v>
+        <v>16.887359</v>
       </c>
       <c r="O10">
-        <v>0.01440406820132228</v>
+        <v>0.01191000595300744</v>
       </c>
       <c r="P10">
-        <v>0.00964904061390821</v>
+        <v>0.007971651440709677</v>
       </c>
       <c r="Q10">
-        <v>648.7419401959501</v>
+        <v>709.3811678453626</v>
       </c>
       <c r="R10">
-        <v>3892.4516411757</v>
+        <v>4256.287007072176</v>
       </c>
       <c r="S10">
-        <v>0.003704161013080092</v>
+        <v>0.002501491801268947</v>
       </c>
       <c r="T10">
-        <v>0.002564221818650216</v>
+        <v>0.001724888011989789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>252.039825</v>
       </c>
       <c r="I11">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="J11">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>255.6524913333334</v>
+        <v>357.885376</v>
       </c>
       <c r="N11">
-        <v>766.957474</v>
+        <v>1073.656128</v>
       </c>
       <c r="O11">
-        <v>0.4768822277895005</v>
+        <v>0.504805631082315</v>
       </c>
       <c r="P11">
-        <v>0.4791829557814964</v>
+        <v>0.5068176983504629</v>
       </c>
       <c r="Q11">
-        <v>21478.20305882246</v>
+        <v>30067.1225123664</v>
       </c>
       <c r="R11">
-        <v>193303.8275294021</v>
+        <v>270604.1026112976</v>
       </c>
       <c r="S11">
-        <v>0.1226353923988286</v>
+        <v>0.1060257360381874</v>
       </c>
       <c r="T11">
-        <v>0.127342337907575</v>
+        <v>0.1096640738309983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="H12">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="I12">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="J12">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.114663666666666</v>
+        <v>5.343111666666666</v>
       </c>
       <c r="N12">
-        <v>6.343991</v>
+        <v>16.029335</v>
       </c>
       <c r="O12">
-        <v>0.003944594926988795</v>
+        <v>0.007536583045055595</v>
       </c>
       <c r="P12">
-        <v>0.003963625705316761</v>
+        <v>0.007566622551600167</v>
       </c>
       <c r="Q12">
-        <v>201.5668429125554</v>
+        <v>684.4050116233477</v>
       </c>
       <c r="R12">
-        <v>1814.101586212999</v>
+        <v>6159.64510461013</v>
       </c>
       <c r="S12">
-        <v>0.001150898369266536</v>
+        <v>0.002413418346758802</v>
       </c>
       <c r="T12">
-        <v>0.001195071717630971</v>
+        <v>0.002496236269170707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="H13">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="I13">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="J13">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>74.863215</v>
       </c>
       <c r="O13">
-        <v>0.04654878263652509</v>
+        <v>0.03519876756380422</v>
       </c>
       <c r="P13">
-        <v>0.046773358183619</v>
+        <v>0.03533906371688481</v>
       </c>
       <c r="Q13">
-        <v>2378.619688747015</v>
+        <v>3196.43700329653</v>
       </c>
       <c r="R13">
-        <v>21407.57719872313</v>
+        <v>28767.93302966877</v>
       </c>
       <c r="S13">
-        <v>0.0135813484069492</v>
+        <v>0.01127160026154228</v>
       </c>
       <c r="T13">
-        <v>0.01410262261365546</v>
+        <v>0.01165839209859451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="H14">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="I14">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="J14">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>245.6480053333333</v>
+        <v>312.3302103333334</v>
       </c>
       <c r="N14">
-        <v>736.944016</v>
+        <v>936.990631</v>
       </c>
       <c r="O14">
-        <v>0.4582203264456632</v>
+        <v>0.4405490123558179</v>
       </c>
       <c r="P14">
-        <v>0.4604310197156595</v>
+        <v>0.4423049639403425</v>
       </c>
       <c r="Q14">
-        <v>23414.83124872336</v>
+        <v>40006.71791440649</v>
       </c>
       <c r="R14">
-        <v>210733.4812385102</v>
+        <v>360060.4612296585</v>
       </c>
       <c r="S14">
-        <v>0.1336930752668362</v>
+        <v>0.1410757451632589</v>
       </c>
       <c r="T14">
-        <v>0.1388244326007061</v>
+        <v>0.1459168453947308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="H15">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="I15">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="J15">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.721897999999999</v>
+        <v>8.4436795</v>
       </c>
       <c r="N15">
-        <v>15.443796</v>
+        <v>16.887359</v>
       </c>
       <c r="O15">
-        <v>0.01440406820132228</v>
+        <v>0.01191000595300744</v>
       </c>
       <c r="P15">
-        <v>0.00964904061390821</v>
+        <v>0.007971651440709677</v>
       </c>
       <c r="Q15">
-        <v>736.0407357857738</v>
+        <v>1081.560133282134</v>
       </c>
       <c r="R15">
-        <v>4416.244414714643</v>
+        <v>6489.360799692802</v>
       </c>
       <c r="S15">
-        <v>0.004202616215490779</v>
+        <v>0.003813907006020747</v>
       </c>
       <c r="T15">
-        <v>0.002909279633666302</v>
+        <v>0.00262985570058311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="H16">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="I16">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="J16">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>255.6524913333334</v>
+        <v>357.885376</v>
       </c>
       <c r="N16">
-        <v>766.957474</v>
+        <v>1073.656128</v>
       </c>
       <c r="O16">
-        <v>0.4768822277895005</v>
+        <v>0.504805631082315</v>
       </c>
       <c r="P16">
-        <v>0.4791829557814964</v>
+        <v>0.5068176983504629</v>
       </c>
       <c r="Q16">
-        <v>24368.44514476271</v>
+        <v>45841.92886126084</v>
       </c>
       <c r="R16">
-        <v>219316.0063028644</v>
+        <v>412577.3597513476</v>
       </c>
       <c r="S16">
-        <v>0.1391379820878342</v>
+        <v>0.1616524576612328</v>
       </c>
       <c r="T16">
-        <v>0.1444783237875166</v>
+        <v>0.1671996603309487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="H17">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="I17">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="J17">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.114663666666666</v>
+        <v>5.343111666666666</v>
       </c>
       <c r="N17">
-        <v>6.343991</v>
+        <v>16.029335</v>
       </c>
       <c r="O17">
-        <v>0.003944594926988795</v>
+        <v>0.007536583045055595</v>
       </c>
       <c r="P17">
-        <v>0.003963625705316761</v>
+        <v>0.007566622551600167</v>
       </c>
       <c r="Q17">
-        <v>66.97816736173033</v>
+        <v>188.0150242748341</v>
       </c>
       <c r="R17">
-        <v>401.869004170382</v>
+        <v>1128.090145649005</v>
       </c>
       <c r="S17">
-        <v>0.0003824292848924458</v>
+        <v>0.0006629976422512022</v>
       </c>
       <c r="T17">
-        <v>0.0002647383612508222</v>
+        <v>0.0004571658737863837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="H18">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="I18">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="J18">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>74.863215</v>
       </c>
       <c r="O18">
-        <v>0.04654878263652509</v>
+        <v>0.03519876756380422</v>
       </c>
       <c r="P18">
-        <v>0.046773358183619</v>
+        <v>0.03533906371688481</v>
       </c>
       <c r="Q18">
-        <v>790.3858854004048</v>
+        <v>878.1031268931073</v>
       </c>
       <c r="R18">
-        <v>4742.315312402429</v>
+        <v>5268.618761358643</v>
       </c>
       <c r="S18">
-        <v>0.004512913996441581</v>
+        <v>0.003096456280709389</v>
       </c>
       <c r="T18">
-        <v>0.00312408464278527</v>
+        <v>0.002135142044254044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="H19">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="I19">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="J19">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>245.6480053333333</v>
+        <v>312.3302103333334</v>
       </c>
       <c r="N19">
-        <v>736.944016</v>
+        <v>936.990631</v>
       </c>
       <c r="O19">
-        <v>0.4582203264456632</v>
+        <v>0.4405490123558179</v>
       </c>
       <c r="P19">
-        <v>0.4604310197156595</v>
+        <v>0.4423049639403425</v>
       </c>
       <c r="Q19">
-        <v>7780.458648171739</v>
+        <v>10990.36960876775</v>
       </c>
       <c r="R19">
-        <v>46682.75188903043</v>
+        <v>65942.21765260649</v>
       </c>
       <c r="S19">
-        <v>0.04442455436091369</v>
+        <v>0.03875535567535811</v>
       </c>
       <c r="T19">
-        <v>0.03075309393242199</v>
+        <v>0.02672351289375199</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="H20">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="I20">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="J20">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.721897999999999</v>
+        <v>8.4436795</v>
       </c>
       <c r="N20">
-        <v>15.443796</v>
+        <v>16.887359</v>
       </c>
       <c r="O20">
-        <v>0.01440406820132228</v>
+        <v>0.01191000595300744</v>
       </c>
       <c r="P20">
-        <v>0.00964904061390821</v>
+        <v>0.007971651440709677</v>
       </c>
       <c r="Q20">
-        <v>244.577227455498</v>
+        <v>297.1187400153692</v>
       </c>
       <c r="R20">
-        <v>978.3089098219918</v>
+        <v>1188.474960061477</v>
       </c>
       <c r="S20">
-        <v>0.001396477357937176</v>
+        <v>0.001047730227191236</v>
       </c>
       <c r="T20">
-        <v>0.0006444784118596641</v>
+        <v>0.0004816372128462816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="H21">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="I21">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="J21">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>255.6524913333334</v>
+        <v>357.885376</v>
       </c>
       <c r="N21">
-        <v>766.957474</v>
+        <v>1073.656128</v>
       </c>
       <c r="O21">
-        <v>0.4768822277895005</v>
+        <v>0.504805631082315</v>
       </c>
       <c r="P21">
-        <v>0.4791829557814964</v>
+        <v>0.5068176983504629</v>
       </c>
       <c r="Q21">
-        <v>8097.332744151425</v>
+        <v>12593.37851312886</v>
       </c>
       <c r="R21">
-        <v>48583.99646490855</v>
+        <v>75560.27107877318</v>
       </c>
       <c r="S21">
-        <v>0.04623382951279986</v>
+        <v>0.04440804820989486</v>
       </c>
       <c r="T21">
-        <v>0.03200557264596215</v>
+        <v>0.03062129164455204</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="H22">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="I22">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="J22">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.114663666666666</v>
+        <v>5.343111666666666</v>
       </c>
       <c r="N22">
-        <v>6.343991</v>
+        <v>16.029335</v>
       </c>
       <c r="O22">
-        <v>0.003944594926988795</v>
+        <v>0.007536583045055595</v>
       </c>
       <c r="P22">
-        <v>0.003963625705316761</v>
+        <v>0.007566622551600167</v>
       </c>
       <c r="Q22">
-        <v>150.8498371732346</v>
+        <v>569.2259596063017</v>
       </c>
       <c r="R22">
-        <v>1357.648534559112</v>
+        <v>5123.033636456715</v>
       </c>
       <c r="S22">
-        <v>0.0008613164203902109</v>
+        <v>0.002007262295036017</v>
       </c>
       <c r="T22">
-        <v>0.0008943751433026023</v>
+        <v>0.002076142724835472</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="H23">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="I23">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="J23">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>74.863215</v>
       </c>
       <c r="O23">
-        <v>0.04654878263652509</v>
+        <v>0.03519876756380422</v>
       </c>
       <c r="P23">
-        <v>0.046773358183619</v>
+        <v>0.03533906371688481</v>
       </c>
       <c r="Q23">
-        <v>1780.12607410932</v>
+        <v>2658.506132511915</v>
       </c>
       <c r="R23">
-        <v>16021.13466698388</v>
+        <v>23926.55519260724</v>
       </c>
       <c r="S23">
-        <v>0.01016409329122673</v>
+        <v>0.009374693881853163</v>
       </c>
       <c r="T23">
-        <v>0.01055420769728685</v>
+        <v>0.009696392219642533</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="H24">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="I24">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="J24">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>245.6480053333333</v>
+        <v>312.3302103333334</v>
       </c>
       <c r="N24">
-        <v>736.944016</v>
+        <v>936.990631</v>
       </c>
       <c r="O24">
-        <v>0.4582203264456632</v>
+        <v>0.4405490123558179</v>
       </c>
       <c r="P24">
-        <v>0.4604310197156595</v>
+        <v>0.4423049639403425</v>
       </c>
       <c r="Q24">
-        <v>17523.3358337661</v>
+        <v>33273.95622295554</v>
       </c>
       <c r="R24">
-        <v>157710.0225038949</v>
+        <v>299465.6060065999</v>
       </c>
       <c r="S24">
-        <v>0.1000540482937486</v>
+        <v>0.1173339982231519</v>
       </c>
       <c r="T24">
-        <v>0.103894285145738</v>
+        <v>0.1213603859292758</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="H25">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="I25">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="J25">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.721897999999999</v>
+        <v>8.4436795</v>
       </c>
       <c r="N25">
-        <v>15.443796</v>
+        <v>16.887359</v>
       </c>
       <c r="O25">
-        <v>0.01440406820132228</v>
+        <v>0.01191000595300744</v>
       </c>
       <c r="P25">
-        <v>0.00964904061390821</v>
+        <v>0.007971651440709677</v>
       </c>
       <c r="Q25">
-        <v>550.842705783312</v>
+        <v>899.5435367709684</v>
       </c>
       <c r="R25">
-        <v>3305.056234699872</v>
+        <v>5397.261220625811</v>
       </c>
       <c r="S25">
-        <v>0.003145179845295333</v>
+        <v>0.003172061627956226</v>
       </c>
       <c r="T25">
-        <v>0.002177264636825014</v>
+        <v>0.002187275238151479</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="H26">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="I26">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="J26">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>255.6524913333334</v>
+        <v>357.885376</v>
       </c>
       <c r="N26">
-        <v>766.957474</v>
+        <v>1073.656128</v>
       </c>
       <c r="O26">
-        <v>0.4768822277895005</v>
+        <v>0.504805631082315</v>
       </c>
       <c r="P26">
-        <v>0.4791829557814964</v>
+        <v>0.5068176983504629</v>
       </c>
       <c r="Q26">
-        <v>18237.00728322209</v>
+        <v>38127.15497854317</v>
       </c>
       <c r="R26">
-        <v>164133.0655489988</v>
+        <v>343144.3948068885</v>
       </c>
       <c r="S26">
-        <v>0.1041289412449038</v>
+        <v>0.1344478397618344</v>
       </c>
       <c r="T26">
-        <v>0.1081255791056059</v>
+        <v>0.1390614993773742</v>
       </c>
     </row>
   </sheetData>
